--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43595</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43605</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43627</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43639</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43721</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44053</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44064</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44187</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44595</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44740</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44818</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44819</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44830</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44880</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44890</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44908</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44998</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45021</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45101</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45104</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45135</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43321</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43335</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43336</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43339</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43341</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43342</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43346</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43355</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43360</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43361</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43367</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43368</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43384</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43387</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43388</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>43391</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>43397</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43403</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43405</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>43409</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>43410</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>43412</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>43415</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>43416</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>43417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>43418</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43419</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>43424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>43426</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43427</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>43431</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43433</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43434</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>43437</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>43439</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>43440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43447</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43449</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43452</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43461</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43465</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43473</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43474</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43476</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43480</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43485</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43489</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37483,7 +37483,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40628,7 +40628,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40799,7 +40799,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43493,7 +43493,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43612,7 +43612,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46492,7 +46492,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46549,7 +46549,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48750,7 +48750,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50091,7 +50091,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50837,7 +50837,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50894,7 +50894,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51754,7 +51754,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51811,7 +51811,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51868,7 +51868,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51925,7 +51925,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52210,7 +52210,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52267,7 +52267,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52324,7 +52324,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52381,7 +52381,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52438,7 +52438,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52495,7 +52495,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52552,7 +52552,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52609,7 +52609,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52666,7 +52666,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52780,7 +52780,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53863,7 +53863,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53977,7 +53977,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54034,7 +54034,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54148,7 +54148,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54205,7 +54205,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54262,7 +54262,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54433,7 +54433,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54490,7 +54490,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54547,7 +54547,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54604,7 +54604,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54661,7 +54661,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54775,7 +54775,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55060,7 +55060,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55117,7 +55117,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55174,7 +55174,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55288,7 +55288,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55345,7 +55345,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55402,7 +55402,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55521,7 +55521,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55578,7 +55578,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55635,7 +55635,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55692,7 +55692,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55749,7 +55749,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55977,7 +55977,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56034,7 +56034,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56091,7 +56091,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56148,7 +56148,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56262,7 +56262,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56376,7 +56376,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56433,7 +56433,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56490,7 +56490,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56661,7 +56661,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56718,7 +56718,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56775,7 +56775,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56832,7 +56832,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57003,7 +57003,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57060,7 +57060,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57117,7 +57117,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57174,7 +57174,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57231,7 +57231,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57459,7 +57459,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57578,7 +57578,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57635,7 +57635,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57692,7 +57692,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57749,7 +57749,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57806,7 +57806,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57863,7 +57863,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57920,7 +57920,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57977,7 +57977,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58091,7 +58091,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58148,7 +58148,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58205,7 +58205,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58262,7 +58262,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58319,7 +58319,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58376,7 +58376,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58433,7 +58433,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58490,7 +58490,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58547,7 +58547,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58604,7 +58604,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58661,7 +58661,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58723,7 +58723,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58780,7 +58780,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59122,7 +59122,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59179,7 +59179,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59236,7 +59236,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59293,7 +59293,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59350,7 +59350,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59464,7 +59464,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59521,7 +59521,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59578,7 +59578,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59692,7 +59692,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60034,7 +60034,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60091,7 +60091,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60148,7 +60148,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60205,7 +60205,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60490,7 +60490,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60547,7 +60547,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60604,7 +60604,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60661,7 +60661,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60718,7 +60718,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60775,7 +60775,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60882,14 +60882,14 @@
     <row r="1004" ht="15" customHeight="1">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>A 40485-2023</t>
+          <t>A 40474-2023</t>
         </is>
       </c>
       <c r="B1004" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60902,7 +60902,7 @@
         </is>
       </c>
       <c r="G1004" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H1004" t="n">
         <v>0</v>
@@ -60939,14 +60939,14 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>A 40474-2023</t>
+          <t>A 40485-2023</t>
         </is>
       </c>
       <c r="B1005" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60959,7 +60959,7 @@
         </is>
       </c>
       <c r="G1005" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H1005" t="n">
         <v>0</v>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1005"/>
+  <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43595</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43605</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43627</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43639</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43721</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44053</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44064</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44187</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44595</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44740</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44818</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44819</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44830</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44880</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44890</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44908</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44998</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45021</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45101</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45104</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45135</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43321</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43335</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43336</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43339</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43341</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43342</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43346</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43355</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43360</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43361</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43367</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43368</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43384</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43387</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43388</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>43391</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>43397</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43403</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43405</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>43409</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>43410</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>43412</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>43415</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>43416</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>43417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>43418</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43419</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>43424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>43426</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43427</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>43431</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43433</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43434</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>43437</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>43439</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>43440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43447</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43449</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43452</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43461</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43465</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43473</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43474</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43476</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43480</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43485</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43489</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37483,7 +37483,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40628,7 +40628,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40799,7 +40799,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43493,7 +43493,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43612,7 +43612,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46492,7 +46492,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46549,7 +46549,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48750,7 +48750,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50091,7 +50091,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50837,7 +50837,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50894,7 +50894,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51754,7 +51754,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51811,7 +51811,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51868,7 +51868,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51925,7 +51925,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52210,7 +52210,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52267,7 +52267,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52324,7 +52324,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52381,7 +52381,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52438,7 +52438,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52495,7 +52495,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52552,7 +52552,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52609,7 +52609,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52666,7 +52666,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52780,7 +52780,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53863,7 +53863,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53977,7 +53977,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54034,7 +54034,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54148,7 +54148,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54205,7 +54205,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54262,7 +54262,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54433,7 +54433,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54490,7 +54490,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54547,7 +54547,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54604,7 +54604,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54661,7 +54661,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54775,7 +54775,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55060,7 +55060,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55117,7 +55117,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55174,7 +55174,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55288,7 +55288,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55345,7 +55345,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55402,7 +55402,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55521,7 +55521,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55578,7 +55578,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55635,7 +55635,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55692,7 +55692,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55749,7 +55749,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55977,7 +55977,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56034,7 +56034,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56091,7 +56091,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56148,7 +56148,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56262,7 +56262,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56376,7 +56376,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56433,7 +56433,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56490,7 +56490,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56661,7 +56661,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56718,7 +56718,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56775,7 +56775,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56832,7 +56832,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57003,7 +57003,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57060,7 +57060,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57117,7 +57117,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57174,7 +57174,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57231,7 +57231,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57459,7 +57459,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57578,7 +57578,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57635,7 +57635,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57692,7 +57692,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57749,7 +57749,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57806,7 +57806,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57863,7 +57863,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57920,7 +57920,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57977,7 +57977,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58091,7 +58091,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58148,7 +58148,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58205,7 +58205,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58262,7 +58262,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58319,7 +58319,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58376,7 +58376,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58433,7 +58433,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58490,7 +58490,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58547,7 +58547,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58604,7 +58604,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58661,7 +58661,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58723,7 +58723,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58780,7 +58780,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59122,7 +59122,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59179,7 +59179,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59236,7 +59236,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59293,7 +59293,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59350,7 +59350,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59464,7 +59464,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59521,7 +59521,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59578,7 +59578,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59692,7 +59692,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60034,7 +60034,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60091,7 +60091,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60148,7 +60148,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60205,7 +60205,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60490,7 +60490,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60547,7 +60547,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60604,7 +60604,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60661,7 +60661,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60718,7 +60718,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60775,7 +60775,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60936,7 +60936,7 @@
       </c>
       <c r="R1004" s="2" t="inlineStr"/>
     </row>
-    <row r="1005">
+    <row r="1005" ht="15" customHeight="1">
       <c r="A1005" t="inlineStr">
         <is>
           <t>A 40485-2023</t>
@@ -60946,7 +60946,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -60992,6 +60992,296 @@
         <v>0</v>
       </c>
       <c r="R1005" s="2" t="inlineStr"/>
+    </row>
+    <row r="1006" ht="15" customHeight="1">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>A 40876-2023</t>
+        </is>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1006" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="G1006" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" s="2" t="inlineStr"/>
+    </row>
+    <row r="1007" ht="15" customHeight="1">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>A 40890-2023</t>
+        </is>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1007" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="G1007" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" s="2" t="inlineStr"/>
+    </row>
+    <row r="1008" ht="15" customHeight="1">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>A 40884-2023</t>
+        </is>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1008" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="G1008" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" s="2" t="inlineStr"/>
+    </row>
+    <row r="1009" ht="15" customHeight="1">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>A 40886-2023</t>
+        </is>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C1009" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="G1009" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" s="2" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>A 41185-2023</t>
+        </is>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1010" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1010"/>
+  <dimension ref="A1:Y1011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43595</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43605</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43627</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43639</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43721</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44053</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44064</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44187</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44595</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44740</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44818</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44819</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44830</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44880</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44890</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44908</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44998</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45021</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45101</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45104</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45135</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43321</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43335</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43336</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43339</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43341</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43342</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43346</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43355</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43360</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43361</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43367</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43368</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43384</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43387</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43388</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>43391</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>43397</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43403</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43405</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>43409</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>43410</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>43412</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>43415</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>43416</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>43417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>43418</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43419</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>43424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>43426</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43427</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>43431</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43433</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43434</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>43437</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>43439</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>43440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43447</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43449</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43452</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43461</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43465</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43473</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43474</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43476</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43480</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43485</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43489</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37483,7 +37483,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40628,7 +40628,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40799,7 +40799,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43493,7 +43493,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43612,7 +43612,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46492,7 +46492,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46549,7 +46549,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48750,7 +48750,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50091,7 +50091,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50837,7 +50837,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50894,7 +50894,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51754,7 +51754,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51811,7 +51811,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51868,7 +51868,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51925,7 +51925,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52210,7 +52210,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52267,7 +52267,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52324,7 +52324,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52381,7 +52381,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52438,7 +52438,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52495,7 +52495,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52552,7 +52552,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52609,7 +52609,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52666,7 +52666,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52780,7 +52780,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53863,7 +53863,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53977,7 +53977,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54034,7 +54034,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54148,7 +54148,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54205,7 +54205,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54262,7 +54262,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54433,7 +54433,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54490,7 +54490,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54547,7 +54547,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54604,7 +54604,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54661,7 +54661,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54775,7 +54775,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55060,7 +55060,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55117,7 +55117,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55174,7 +55174,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55288,7 +55288,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55345,7 +55345,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55402,7 +55402,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55521,7 +55521,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55578,7 +55578,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55635,7 +55635,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55692,7 +55692,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55749,7 +55749,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55977,7 +55977,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56034,7 +56034,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56091,7 +56091,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56148,7 +56148,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56262,7 +56262,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56376,7 +56376,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56433,7 +56433,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56490,7 +56490,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56661,7 +56661,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56718,7 +56718,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56775,7 +56775,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56832,7 +56832,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57003,7 +57003,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57060,7 +57060,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57117,7 +57117,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57174,7 +57174,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57231,7 +57231,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57459,7 +57459,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57578,7 +57578,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57635,7 +57635,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57692,7 +57692,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57749,7 +57749,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57806,7 +57806,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57863,7 +57863,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57920,7 +57920,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57977,7 +57977,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58091,7 +58091,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58148,7 +58148,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58205,7 +58205,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58262,7 +58262,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58319,7 +58319,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58376,7 +58376,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58433,7 +58433,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58490,7 +58490,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58547,7 +58547,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58604,7 +58604,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58661,7 +58661,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58723,7 +58723,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58780,7 +58780,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59122,7 +59122,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59179,7 +59179,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59236,7 +59236,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59293,7 +59293,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59350,7 +59350,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59464,7 +59464,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59521,7 +59521,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59578,7 +59578,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59692,7 +59692,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60034,7 +60034,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60091,7 +60091,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60148,7 +60148,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60205,7 +60205,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60490,7 +60490,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60547,7 +60547,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60604,7 +60604,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60661,7 +60661,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60718,7 +60718,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60775,7 +60775,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61060,7 +61060,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61117,7 +61117,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61174,7 +61174,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61221,7 +61221,7 @@
       </c>
       <c r="R1009" s="2" t="inlineStr"/>
     </row>
-    <row r="1010">
+    <row r="1010" ht="15" customHeight="1">
       <c r="A1010" t="inlineStr">
         <is>
           <t>A 41185-2023</t>
@@ -61231,7 +61231,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61282,6 +61282,63 @@
         <v>0</v>
       </c>
       <c r="R1010" s="2" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>A 41754-2023</t>
+        </is>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1011" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="G1011" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43595</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43605</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43627</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43639</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43721</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44053</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44064</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44187</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44595</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44740</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44818</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44819</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44830</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44880</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44890</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44908</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44998</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45021</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45101</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45104</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45135</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43321</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43335</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43336</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43339</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43341</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43342</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43346</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43355</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43360</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43361</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43367</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43368</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43384</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43387</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43388</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>43391</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>43397</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43403</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43405</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>43409</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>43410</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>43412</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>43415</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>43416</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>43417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>43418</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43419</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>43424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>43426</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43427</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>43431</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43433</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43434</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>43437</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>43439</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>43440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43447</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43449</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43452</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43461</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43465</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43473</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43474</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43476</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43480</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43485</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43489</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37483,7 +37483,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40628,7 +40628,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40799,7 +40799,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43493,7 +43493,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43612,7 +43612,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46492,7 +46492,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46549,7 +46549,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48750,7 +48750,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50091,7 +50091,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50837,7 +50837,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50894,7 +50894,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51754,7 +51754,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51811,7 +51811,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51868,7 +51868,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51925,7 +51925,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52210,7 +52210,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52267,7 +52267,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52324,7 +52324,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52381,7 +52381,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52438,7 +52438,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52495,7 +52495,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52552,7 +52552,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52609,7 +52609,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52666,7 +52666,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52780,7 +52780,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53863,7 +53863,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53977,7 +53977,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54034,7 +54034,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54148,7 +54148,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54205,7 +54205,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54262,7 +54262,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54433,7 +54433,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54490,7 +54490,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54547,7 +54547,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54604,7 +54604,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54661,7 +54661,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54775,7 +54775,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55060,7 +55060,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55117,7 +55117,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55174,7 +55174,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55288,7 +55288,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55345,7 +55345,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55402,7 +55402,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55521,7 +55521,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55578,7 +55578,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55635,7 +55635,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55692,7 +55692,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55749,7 +55749,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55977,7 +55977,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56034,7 +56034,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56091,7 +56091,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56148,7 +56148,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56262,7 +56262,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56376,7 +56376,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56433,7 +56433,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56490,7 +56490,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56661,7 +56661,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56718,7 +56718,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56775,7 +56775,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56832,7 +56832,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57003,7 +57003,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57060,7 +57060,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57117,7 +57117,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57174,7 +57174,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57231,7 +57231,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57459,7 +57459,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57578,7 +57578,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57635,7 +57635,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57692,7 +57692,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57749,7 +57749,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57806,7 +57806,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57863,7 +57863,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57920,7 +57920,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57977,7 +57977,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58091,7 +58091,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58148,7 +58148,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58205,7 +58205,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58262,7 +58262,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58319,7 +58319,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58376,7 +58376,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58433,7 +58433,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58490,7 +58490,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58547,7 +58547,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58604,7 +58604,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58661,7 +58661,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58723,7 +58723,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58780,7 +58780,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59122,7 +59122,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59179,7 +59179,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59236,7 +59236,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59293,7 +59293,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59350,7 +59350,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59464,7 +59464,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59521,7 +59521,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59578,7 +59578,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59692,7 +59692,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60034,7 +60034,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60091,7 +60091,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60148,7 +60148,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60205,7 +60205,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60490,7 +60490,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60547,7 +60547,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60604,7 +60604,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60661,7 +60661,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60718,7 +60718,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60775,7 +60775,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61060,7 +61060,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61117,7 +61117,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61174,7 +61174,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61231,7 +61231,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61293,7 +61293,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43571</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43595</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43605</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43627</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43639</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43713</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43718</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>43721</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44053</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44064</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44187</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44305</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>44434</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44454</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>44514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44595</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>44643</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>44740</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44747</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44818</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44819</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>44830</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>44834</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44880</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>44890</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44908</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44998</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45021</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>45085</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45101</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>45104</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>45135</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43321</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43328</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43332</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43335</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43336</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43339</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43341</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43342</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>43346</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>43348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>43354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43355</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43360</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43361</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43367</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43368</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43384</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43387</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43388</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>43391</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>43397</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>43402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43403</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43405</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>43409</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>43410</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>43412</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>43415</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>43416</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>43417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>43418</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43419</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>43424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>43426</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>43427</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>43431</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43433</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43434</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>43437</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>43439</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>43440</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>43447</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43449</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43452</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>43461</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>43465</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>43467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>43469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>43473</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43474</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43476</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43480</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>43481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>43482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>43485</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>43486</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43489</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26035,7 +26035,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26092,7 +26092,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26206,7 +26206,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33282,7 +33282,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33510,7 +33510,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34831,7 +34831,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36271,7 +36271,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36789,7 +36789,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36846,7 +36846,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37198,7 +37198,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37483,7 +37483,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40053,7 +40053,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40110,7 +40110,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40167,7 +40167,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40343,7 +40343,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40628,7 +40628,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40685,7 +40685,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40742,7 +40742,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40799,7 +40799,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43493,7 +43493,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43612,7 +43612,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43669,7 +43669,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46492,7 +46492,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46549,7 +46549,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48750,7 +48750,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48864,7 +48864,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49092,7 +49092,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49977,7 +49977,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50034,7 +50034,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50091,7 +50091,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50148,7 +50148,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50205,7 +50205,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50262,7 +50262,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50319,7 +50319,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50376,7 +50376,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50433,7 +50433,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50604,7 +50604,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50837,7 +50837,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50894,7 +50894,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51179,7 +51179,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51350,7 +51350,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51464,7 +51464,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51754,7 +51754,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51811,7 +51811,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51868,7 +51868,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51925,7 +51925,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52210,7 +52210,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52267,7 +52267,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52324,7 +52324,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52381,7 +52381,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52438,7 +52438,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52495,7 +52495,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52552,7 +52552,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52609,7 +52609,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52666,7 +52666,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52780,7 +52780,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53350,7 +53350,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53407,7 +53407,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53521,7 +53521,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53578,7 +53578,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53635,7 +53635,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53692,7 +53692,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53749,7 +53749,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53806,7 +53806,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53863,7 +53863,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53920,7 +53920,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53977,7 +53977,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54034,7 +54034,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54148,7 +54148,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54205,7 +54205,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54262,7 +54262,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54319,7 +54319,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54376,7 +54376,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54433,7 +54433,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54490,7 +54490,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54547,7 +54547,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54604,7 +54604,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54661,7 +54661,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54775,7 +54775,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55003,7 +55003,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55060,7 +55060,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55117,7 +55117,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55174,7 +55174,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55231,7 +55231,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55288,7 +55288,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55345,7 +55345,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55402,7 +55402,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55521,7 +55521,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55578,7 +55578,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55635,7 +55635,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55692,7 +55692,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55749,7 +55749,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55977,7 +55977,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56034,7 +56034,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56091,7 +56091,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56148,7 +56148,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56262,7 +56262,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56376,7 +56376,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56433,7 +56433,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56490,7 +56490,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56661,7 +56661,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56718,7 +56718,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56775,7 +56775,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56832,7 +56832,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57003,7 +57003,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57060,7 +57060,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57117,7 +57117,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57174,7 +57174,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57231,7 +57231,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57459,7 +57459,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57578,7 +57578,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57635,7 +57635,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57692,7 +57692,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57749,7 +57749,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57806,7 +57806,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57863,7 +57863,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57920,7 +57920,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -57977,7 +57977,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58091,7 +58091,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58148,7 +58148,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58205,7 +58205,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58262,7 +58262,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58319,7 +58319,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58376,7 +58376,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58433,7 +58433,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58490,7 +58490,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58547,7 +58547,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58604,7 +58604,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58661,7 +58661,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58723,7 +58723,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58780,7 +58780,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58894,7 +58894,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58951,7 +58951,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59008,7 +59008,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59065,7 +59065,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59122,7 +59122,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59179,7 +59179,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59236,7 +59236,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59293,7 +59293,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59350,7 +59350,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59464,7 +59464,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59521,7 +59521,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59578,7 +59578,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59692,7 +59692,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60034,7 +60034,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60091,7 +60091,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60148,7 +60148,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60205,7 +60205,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60262,7 +60262,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60490,7 +60490,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60547,7 +60547,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60604,7 +60604,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60661,7 +60661,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60718,7 +60718,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60775,7 +60775,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60832,7 +60832,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61060,7 +61060,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61117,7 +61117,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61174,7 +61174,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61231,7 +61231,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61293,7 +61293,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43517</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43605</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43627</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43639</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43713</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43718</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44064</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44187</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44305</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44434</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44454</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44595</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44643</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44747</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44830</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44834</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44880</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44908</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44998</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43321</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43327</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43328</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43332</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43339</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43341</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43346</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43355</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43360</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43361</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43367</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>43368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43376</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43384</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43387</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43397</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43402</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43403</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43409</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43410</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43415</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43416</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43418</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43426</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43427</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43431</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43433</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43434</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43437</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>43447</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43449</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>43453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43461</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43465</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43476</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43480</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>43485</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>43486</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27094,7 +27094,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39568,7 +39568,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43459,7 +43459,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45360,7 +45360,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46230,7 +46230,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46929,7 +46929,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48017,7 +48017,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48074,7 +48074,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49182,7 +49182,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50119,7 +50119,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50176,7 +50176,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50290,7 +50290,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50518,7 +50518,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50575,7 +50575,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51207,7 +51207,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51321,7 +51321,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51378,7 +51378,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51435,7 +51435,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51611,7 +51611,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51668,7 +51668,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51725,7 +51725,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51782,7 +51782,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51839,7 +51839,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51896,7 +51896,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51953,7 +51953,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52010,7 +52010,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52067,7 +52067,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52124,7 +52124,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52181,7 +52181,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52238,7 +52238,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52295,7 +52295,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52352,7 +52352,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52409,7 +52409,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52580,7 +52580,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52694,7 +52694,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52751,7 +52751,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52865,7 +52865,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52922,7 +52922,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52979,7 +52979,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53093,7 +53093,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53207,7 +53207,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53492,7 +53492,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53834,7 +53834,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53891,7 +53891,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53948,7 +53948,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54005,7 +54005,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54062,7 +54062,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54119,7 +54119,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54176,7 +54176,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54233,7 +54233,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54290,7 +54290,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54347,7 +54347,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55031,7 +55031,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55088,7 +55088,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55145,7 +55145,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55202,7 +55202,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55259,7 +55259,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55316,7 +55316,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55373,7 +55373,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55430,7 +55430,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55606,7 +55606,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55663,7 +55663,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55720,7 +55720,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55777,7 +55777,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55834,7 +55834,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56005,7 +56005,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56119,7 +56119,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56176,7 +56176,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56461,7 +56461,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56518,7 +56518,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56575,7 +56575,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56632,7 +56632,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56689,7 +56689,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57202,7 +57202,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57316,7 +57316,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57373,7 +57373,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57430,7 +57430,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57549,7 +57549,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57606,7 +57606,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57663,7 +57663,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57720,7 +57720,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57777,7 +57777,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57834,7 +57834,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57891,7 +57891,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58062,7 +58062,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58119,7 +58119,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58176,7 +58176,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58751,7 +58751,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58808,7 +58808,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58865,7 +58865,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58922,7 +58922,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58979,7 +58979,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59036,7 +59036,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59093,7 +59093,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59150,7 +59150,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59207,7 +59207,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59321,7 +59321,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59378,7 +59378,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59435,7 +59435,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59492,7 +59492,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59549,7 +59549,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59606,7 +59606,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59663,7 +59663,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59720,7 +59720,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59834,7 +59834,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59891,7 +59891,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59948,7 +59948,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60005,7 +60005,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60062,7 +60062,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60119,7 +60119,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60176,7 +60176,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60233,7 +60233,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60290,7 +60290,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60347,7 +60347,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60404,7 +60404,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60518,7 +60518,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60689,7 +60689,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60803,7 +60803,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60860,7 +60860,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60917,7 +60917,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60974,7 +60974,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61031,7 +61031,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61088,7 +61088,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61145,7 +61145,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61202,7 +61202,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61259,7 +61259,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43517</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43605</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43627</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43639</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43713</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43718</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44064</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44187</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44305</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44434</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44454</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44595</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44643</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44747</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44830</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44834</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44880</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44908</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44998</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43321</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43327</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43328</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43332</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43339</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43341</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43346</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43355</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43360</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43361</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43367</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>43368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43376</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43384</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43387</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43397</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43402</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43403</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43409</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43410</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43415</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43416</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43418</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43426</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43427</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43431</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43433</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43434</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43437</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>43447</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43449</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>43453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43461</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43465</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43476</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43480</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>43485</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>43486</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27094,7 +27094,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39568,7 +39568,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43459,7 +43459,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45360,7 +45360,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46230,7 +46230,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46929,7 +46929,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48017,7 +48017,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48074,7 +48074,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49182,7 +49182,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50119,7 +50119,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50176,7 +50176,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50290,7 +50290,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50518,7 +50518,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50575,7 +50575,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51207,7 +51207,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51321,7 +51321,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51378,7 +51378,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51435,7 +51435,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51611,7 +51611,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51668,7 +51668,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51725,7 +51725,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51782,7 +51782,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51839,7 +51839,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51896,7 +51896,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51953,7 +51953,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52010,7 +52010,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52067,7 +52067,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52124,7 +52124,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52181,7 +52181,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52238,7 +52238,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52295,7 +52295,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52352,7 +52352,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52409,7 +52409,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52580,7 +52580,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52694,7 +52694,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52751,7 +52751,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52865,7 +52865,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52922,7 +52922,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52979,7 +52979,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53093,7 +53093,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53207,7 +53207,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53492,7 +53492,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53834,7 +53834,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53891,7 +53891,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53948,7 +53948,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54005,7 +54005,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54062,7 +54062,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54119,7 +54119,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54176,7 +54176,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54233,7 +54233,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54290,7 +54290,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54347,7 +54347,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55031,7 +55031,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55088,7 +55088,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55145,7 +55145,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55202,7 +55202,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55259,7 +55259,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55316,7 +55316,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55373,7 +55373,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55430,7 +55430,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55606,7 +55606,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55663,7 +55663,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55720,7 +55720,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55777,7 +55777,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55834,7 +55834,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56005,7 +56005,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56119,7 +56119,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56176,7 +56176,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56461,7 +56461,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56518,7 +56518,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56575,7 +56575,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56632,7 +56632,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56689,7 +56689,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57202,7 +57202,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57316,7 +57316,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57373,7 +57373,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57430,7 +57430,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57549,7 +57549,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57606,7 +57606,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57663,7 +57663,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57720,7 +57720,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57777,7 +57777,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57834,7 +57834,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57891,7 +57891,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58062,7 +58062,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58119,7 +58119,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58176,7 +58176,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58751,7 +58751,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58808,7 +58808,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58865,7 +58865,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58922,7 +58922,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58979,7 +58979,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59036,7 +59036,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59093,7 +59093,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59150,7 +59150,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59207,7 +59207,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59321,7 +59321,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59378,7 +59378,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59435,7 +59435,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59492,7 +59492,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59549,7 +59549,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59606,7 +59606,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59663,7 +59663,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59720,7 +59720,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59834,7 +59834,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59891,7 +59891,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59948,7 +59948,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60005,7 +60005,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60062,7 +60062,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60119,7 +60119,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60176,7 +60176,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60233,7 +60233,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60290,7 +60290,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60347,7 +60347,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60404,7 +60404,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60518,7 +60518,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60689,7 +60689,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60803,7 +60803,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60860,7 +60860,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60917,7 +60917,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60974,7 +60974,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61031,7 +61031,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61088,7 +61088,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61145,7 +61145,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61202,7 +61202,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61259,7 +61259,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1011"/>
+  <dimension ref="A1:Y1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43517</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43605</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43627</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43639</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43713</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43718</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44064</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44187</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44305</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44434</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44454</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44595</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44643</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44747</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44830</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44834</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44880</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44908</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44998</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43321</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43327</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43328</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43332</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43339</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43341</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43346</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43355</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43360</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43361</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43367</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>43368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43376</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43384</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43387</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43397</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43402</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43403</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43409</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43410</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43415</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43416</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43418</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43426</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43427</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43431</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43433</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43434</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43437</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>43447</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43449</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>43453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43461</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43465</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43476</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43480</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>43485</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>43486</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27094,7 +27094,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39568,7 +39568,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43459,7 +43459,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45360,7 +45360,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46230,7 +46230,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46929,7 +46929,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48017,7 +48017,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48074,7 +48074,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49182,7 +49182,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50119,7 +50119,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50176,7 +50176,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50290,7 +50290,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50518,7 +50518,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50575,7 +50575,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51207,7 +51207,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51321,7 +51321,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51378,7 +51378,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51435,7 +51435,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51611,7 +51611,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51668,7 +51668,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51725,7 +51725,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51782,7 +51782,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51839,7 +51839,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51896,7 +51896,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51953,7 +51953,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52010,7 +52010,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52067,7 +52067,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52124,7 +52124,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52181,7 +52181,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52238,7 +52238,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52295,7 +52295,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52352,7 +52352,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52409,7 +52409,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52580,7 +52580,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52694,7 +52694,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52751,7 +52751,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52865,7 +52865,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52922,7 +52922,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52979,7 +52979,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53093,7 +53093,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53207,7 +53207,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53492,7 +53492,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53834,7 +53834,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53891,7 +53891,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53948,7 +53948,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54005,7 +54005,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54062,7 +54062,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54119,7 +54119,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54176,7 +54176,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54233,7 +54233,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54290,7 +54290,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54347,7 +54347,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55031,7 +55031,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55088,7 +55088,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55145,7 +55145,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55202,7 +55202,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55259,7 +55259,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55316,7 +55316,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55373,7 +55373,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55430,7 +55430,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55606,7 +55606,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55663,7 +55663,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55720,7 +55720,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55777,7 +55777,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55834,7 +55834,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56005,7 +56005,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56119,7 +56119,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56176,7 +56176,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56461,7 +56461,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56518,7 +56518,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56575,7 +56575,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56632,7 +56632,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56689,7 +56689,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57202,7 +57202,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57316,7 +57316,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57373,7 +57373,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57430,7 +57430,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57549,7 +57549,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57606,7 +57606,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57663,7 +57663,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57720,7 +57720,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57777,7 +57777,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57834,7 +57834,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57891,7 +57891,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58062,7 +58062,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58119,7 +58119,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58176,7 +58176,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58751,7 +58751,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58808,7 +58808,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58865,7 +58865,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58922,7 +58922,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58979,7 +58979,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59036,7 +59036,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59093,7 +59093,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59150,7 +59150,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59207,7 +59207,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59321,7 +59321,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59378,7 +59378,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59435,7 +59435,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59492,7 +59492,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59549,7 +59549,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59606,7 +59606,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59663,7 +59663,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59720,7 +59720,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59834,7 +59834,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59891,7 +59891,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59948,7 +59948,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60005,7 +60005,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60062,7 +60062,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60119,7 +60119,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60176,7 +60176,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60233,7 +60233,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60290,7 +60290,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60347,7 +60347,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60404,7 +60404,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60518,7 +60518,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60689,7 +60689,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60803,7 +60803,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60860,7 +60860,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60917,7 +60917,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60974,7 +60974,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61031,7 +61031,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61088,7 +61088,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61145,7 +61145,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61202,7 +61202,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61259,7 +61259,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61311,7 +61311,7 @@
       </c>
       <c r="R1010" s="2" t="inlineStr"/>
     </row>
-    <row r="1011">
+    <row r="1011" ht="15" customHeight="1">
       <c r="A1011" t="inlineStr">
         <is>
           <t>A 41754-2023</t>
@@ -61321,7 +61321,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61367,6 +61367,63 @@
         <v>0</v>
       </c>
       <c r="R1011" s="2" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>A 42757-2023</t>
+        </is>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1012" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>VETLANDA</t>
+        </is>
+      </c>
+      <c r="G1012" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43517</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43605</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43627</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43639</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43713</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43718</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44064</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44187</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44305</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44434</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44454</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44595</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44643</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44747</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44830</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44834</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44880</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44908</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44998</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43321</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43327</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43328</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43332</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43339</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43341</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43346</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43355</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43360</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43361</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43367</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>43368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43376</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43384</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43387</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43397</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43402</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43403</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43409</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43410</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43415</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43416</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43418</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43426</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43427</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43431</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43433</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43434</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43437</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>43447</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43449</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>43453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43461</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43465</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43476</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43480</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>43485</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>43486</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27094,7 +27094,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39568,7 +39568,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43459,7 +43459,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45360,7 +45360,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46230,7 +46230,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46929,7 +46929,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48017,7 +48017,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48074,7 +48074,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49182,7 +49182,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50119,7 +50119,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50176,7 +50176,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50290,7 +50290,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50518,7 +50518,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50575,7 +50575,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51207,7 +51207,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51321,7 +51321,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51378,7 +51378,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51435,7 +51435,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51611,7 +51611,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51668,7 +51668,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51725,7 +51725,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51782,7 +51782,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51839,7 +51839,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51896,7 +51896,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51953,7 +51953,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52010,7 +52010,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52067,7 +52067,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52124,7 +52124,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52181,7 +52181,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52238,7 +52238,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52295,7 +52295,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52352,7 +52352,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52409,7 +52409,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52580,7 +52580,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52694,7 +52694,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52751,7 +52751,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52865,7 +52865,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52922,7 +52922,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52979,7 +52979,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53093,7 +53093,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53207,7 +53207,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53492,7 +53492,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53834,7 +53834,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53891,7 +53891,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53948,7 +53948,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54005,7 +54005,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54062,7 +54062,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54119,7 +54119,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54176,7 +54176,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54233,7 +54233,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54290,7 +54290,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54347,7 +54347,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55031,7 +55031,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55088,7 +55088,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55145,7 +55145,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55202,7 +55202,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55259,7 +55259,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55316,7 +55316,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55373,7 +55373,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55430,7 +55430,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55606,7 +55606,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55663,7 +55663,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55720,7 +55720,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55777,7 +55777,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55834,7 +55834,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56005,7 +56005,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56119,7 +56119,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56176,7 +56176,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56461,7 +56461,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56518,7 +56518,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56575,7 +56575,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56632,7 +56632,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56689,7 +56689,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57202,7 +57202,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57316,7 +57316,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57373,7 +57373,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57430,7 +57430,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57549,7 +57549,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57606,7 +57606,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57663,7 +57663,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57720,7 +57720,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57777,7 +57777,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57834,7 +57834,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57891,7 +57891,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58062,7 +58062,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58119,7 +58119,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58176,7 +58176,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58751,7 +58751,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58808,7 +58808,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58865,7 +58865,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58922,7 +58922,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58979,7 +58979,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59036,7 +59036,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59093,7 +59093,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59150,7 +59150,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59207,7 +59207,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59321,7 +59321,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59378,7 +59378,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59435,7 +59435,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59492,7 +59492,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59549,7 +59549,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59606,7 +59606,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59663,7 +59663,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59720,7 +59720,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59834,7 +59834,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59891,7 +59891,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59948,7 +59948,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60005,7 +60005,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60062,7 +60062,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60119,7 +60119,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60176,7 +60176,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60233,7 +60233,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60290,7 +60290,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60347,7 +60347,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60404,7 +60404,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60518,7 +60518,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60689,7 +60689,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60803,7 +60803,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60860,7 +60860,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60917,7 +60917,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60974,7 +60974,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61031,7 +61031,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61088,7 +61088,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61145,7 +61145,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61202,7 +61202,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61259,7 +61259,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45181</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43517</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43605</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43627</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43639</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43713</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43718</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44064</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44187</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44305</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44434</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44454</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44595</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44643</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44747</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44830</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44834</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44880</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44908</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44998</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43321</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43327</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43328</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43332</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43339</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43341</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43346</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43355</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43360</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43361</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43367</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>43368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43376</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43384</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43387</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43397</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43402</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43403</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43409</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43410</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43415</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43416</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43418</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43426</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43427</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43431</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43433</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43434</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43437</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>43447</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43449</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43452</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43452</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43453</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>43453</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>43453</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>43453</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>43453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43461</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43465</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43465</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43465</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43467</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43469</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43473</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43473</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43473</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43473</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43474</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43476</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43480</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>43480</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>43481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>43481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>43482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>43482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>43485</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>43486</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>43486</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>43493</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>43497</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>43497</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>43498</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43502</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43503</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43504</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43510</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>43510</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43510</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43514</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43515</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>43515</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>43515</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>43517</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>43517</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>43518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>43523</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>43524</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>43525</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>43530</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>43530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43531</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43531</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43536</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43538</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43538</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>43539</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>43543</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>43549</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>43549</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>43553</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>43555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>43559</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>43560</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43566</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43566</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>43567</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>43579</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>43579</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>43580</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>43580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>43584</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>43585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43585</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>43592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>43594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>43595</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>43601</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>43601</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>43605</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43605</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43605</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43605</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43605</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43605</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>43605</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43606</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>43607</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>43612</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>43614</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>43618</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>43619</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>43622</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43626</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43627</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43627</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43629</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43630</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>43630</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>43636</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>43636</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>43636</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43640</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>43642</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>43642</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>43644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>43644</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>43644</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>43644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>43651</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>43651</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>43656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>43656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>43656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>43656</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>43656</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>43656</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>43656</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>43656</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>43658</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>43661</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>43662</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>43662</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>43663</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>43664</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>43665</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>43665</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>43665</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>43665</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>43665</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>43665</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>43665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>43679</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>43679</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>43682</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>43683</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>43685</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43686</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43689</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>43689</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>43691</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>43692</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>43696</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>43696</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>43697</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>43697</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>43697</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>43697</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>43697</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>43698</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>43699</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>43699</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>43700</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>43704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>43704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>43704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>43705</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>43705</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>43705</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>43705</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>43705</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>43707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>43710</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>43711</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>43713</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>43714</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>43714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>43714</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>43714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>43714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>43718</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>43718</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>43718</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43718</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>43720</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>43720</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>43721</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>43721</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>43724</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>43724</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>43724</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>43726</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>43726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>43728</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>43729</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>43731</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>43731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>43732</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>43734</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>43735</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>43738</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>43742</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>43742</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>43749</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>43749</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>43761</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>43761</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>43763</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>43766</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26063,7 +26063,7 @@
         <v>43768</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26120,7 +26120,7 @@
         <v>43777</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>43777</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26234,7 +26234,7 @@
         <v>43777</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26291,7 +26291,7 @@
         <v>43781</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>43783</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26405,7 +26405,7 @@
         <v>43784</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>43784</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>43788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>43790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>43794</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>43795</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>43795</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>43796</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         <v>43801</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>43801</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>43801</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>43803</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27094,7 +27094,7 @@
         <v>43803</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>43804</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>43809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>43812</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>43814</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>43814</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>43815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>43817</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>43817</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>43817</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>43817</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>43818</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>43818</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>43818</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>43818</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>43819</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>43819</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>43819</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>43819</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>43819</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>43837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>43841</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>43841</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>43845</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>43850</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>43850</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>43850</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>43850</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>43851</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>43851</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>43857</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>43859</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>43866</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>43872</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>43873</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>43875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>43884</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>43885</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>43885</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>43885</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>43885</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>43885</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>43886</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>43887</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>43887</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>43888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>43892</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>43894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>43894</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>43895</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>43895</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>43899</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>43899</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>43899</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>43899</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30254,7 +30254,7 @@
         <v>43900</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30311,7 +30311,7 @@
         <v>43900</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30368,7 +30368,7 @@
         <v>43907</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>43910</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>43912</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30539,7 +30539,7 @@
         <v>43913</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30596,7 +30596,7 @@
         <v>43913</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30653,7 +30653,7 @@
         <v>43913</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>43913</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>43913</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>43913</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>43913</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30938,7 +30938,7 @@
         <v>43919</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>43919</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>43920</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>43924</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>43924</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>43927</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>43927</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>43930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>43930</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>43930</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>43936</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>43951</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>43956</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>43958</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>43958</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>43966</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         <v>43978</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>43980</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31964,7 +31964,7 @@
         <v>43983</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>43984</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>43990</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>43994</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>43997</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>43998</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>43998</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>43998</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>43998</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>43999</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>44006</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44006</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>44006</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>44013</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44015</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>44015</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>44015</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>44018</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44019</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44020</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44020</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44021</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44026</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44026</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44029</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44033</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44042</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44046</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44054</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44056</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44059</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44064</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44067</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44069</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44071</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44071</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44075</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34460,7 +34460,7 @@
         <v>44081</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44081</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>44081</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>44084</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>44084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>44088</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>44088</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>44088</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>44092</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>44092</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44092</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>44095</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>44097</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44106</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44106</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44109</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44109</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44110</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44110</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44110</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44110</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>44117</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>44118</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35833,7 +35833,7 @@
         <v>44120</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44120</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44120</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44124</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         <v>44124</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>44130</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>44130</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>44132</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>44137</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44138</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44139</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44140</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44140</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44152</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44153</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44153</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44154</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44155</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44167</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44167</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44169</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44173</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>44174</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>44176</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44177</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44177</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44181</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44181</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44181</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44181</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44185</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>44185</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>44186</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>44187</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44187</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>44188</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>44188</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>44196</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>44201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>44204</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38371,7 +38371,7 @@
         <v>44204</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38428,7 +38428,7 @@
         <v>44205</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>44205</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38542,7 +38542,7 @@
         <v>44205</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38599,7 +38599,7 @@
         <v>44207</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38656,7 +38656,7 @@
         <v>44209</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38713,7 +38713,7 @@
         <v>44214</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38770,7 +38770,7 @@
         <v>44214</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44215</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44218</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44224</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44228</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44228</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>44235</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>44235</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>44236</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>44239</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>44239</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44242</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44242</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44242</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39568,7 +39568,7 @@
         <v>44243</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>44245</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
         <v>44245</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39739,7 +39739,7 @@
         <v>44246</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>44250</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44251</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39910,7 +39910,7 @@
         <v>44252</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>44258</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44260</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>44264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>44266</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>44267</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40309,7 +40309,7 @@
         <v>44267</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44267</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44271</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>44271</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44273</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>44273</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>44286</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>44286</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>44300</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>44301</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>44301</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44301</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>44301</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>44309</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41117,7 +41117,7 @@
         <v>44313</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>44313</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>44313</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44313</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>44316</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>44319</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>44322</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>44327</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44333</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>44335</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44343</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>44343</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>44347</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44350</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44355</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>44355</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44361</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>44363</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42200,7 +42200,7 @@
         <v>44365</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42257,7 +42257,7 @@
         <v>44365</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42314,7 +42314,7 @@
         <v>44369</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42371,7 +42371,7 @@
         <v>44371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42428,7 +42428,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42542,7 +42542,7 @@
         <v>44384</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42599,7 +42599,7 @@
         <v>44386</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42656,7 +42656,7 @@
         <v>44388</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42713,7 +42713,7 @@
         <v>44390</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42770,7 +42770,7 @@
         <v>44391</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42827,7 +42827,7 @@
         <v>44392</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42884,7 +42884,7 @@
         <v>44392</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42941,7 +42941,7 @@
         <v>44398</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42998,7 +42998,7 @@
         <v>44404</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43055,7 +43055,7 @@
         <v>44417</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43112,7 +43112,7 @@
         <v>44424</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43169,7 +43169,7 @@
         <v>44424</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43226,7 +43226,7 @@
         <v>44426</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43283,7 +43283,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43340,7 +43340,7 @@
         <v>44434</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43397,7 +43397,7 @@
         <v>44434</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43459,7 +43459,7 @@
         <v>44435</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43521,7 +43521,7 @@
         <v>44435</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44439</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44439</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44439</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44439</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44440</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>44446</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>44453</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>44453</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>44454</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>44455</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44158,7 +44158,7 @@
         <v>44459</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44215,7 +44215,7 @@
         <v>44459</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44272,7 +44272,7 @@
         <v>44459</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44329,7 +44329,7 @@
         <v>44460</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44460</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44460</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>44461</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44462</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>44462</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>44462</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>44462</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>44463</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>44467</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>44468</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>44469</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>44474</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>44487</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44488</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44494</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45360,7 +45360,7 @@
         <v>44495</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>44503</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>44503</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>44504</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>44504</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>44510</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>44510</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>44510</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44515</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44515</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44515</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44515</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46059,7 +46059,7 @@
         <v>44517</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>44517</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>44530</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46230,7 +46230,7 @@
         <v>44531</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>44549</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44550</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46401,7 +46401,7 @@
         <v>44550</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         <v>44564</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46520,7 +46520,7 @@
         <v>44564</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>44573</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>44579</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>44580</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44585</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>44585</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>44585</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46929,7 +46929,7 @@
         <v>44585</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46991,7 +46991,7 @@
         <v>44587</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>44587</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47105,7 +47105,7 @@
         <v>44587</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47162,7 +47162,7 @@
         <v>44592</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47219,7 +47219,7 @@
         <v>44592</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>44592</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>44592</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>44596</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>44600</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47504,7 +47504,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47561,7 +47561,7 @@
         <v>44600</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47618,7 +47618,7 @@
         <v>44602</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47675,7 +47675,7 @@
         <v>44602</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47732,7 +47732,7 @@
         <v>44602</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         <v>44602</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47846,7 +47846,7 @@
         <v>44607</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>44607</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47960,7 +47960,7 @@
         <v>44608</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48017,7 +48017,7 @@
         <v>44609</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48074,7 +48074,7 @@
         <v>44612</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44615</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>44617</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>44624</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44630</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44638</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44641</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44645</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44655</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44655</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44657</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44680</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44683</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44683</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44721</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44721</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>44732</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44733</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>44740</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49182,7 +49182,7 @@
         <v>44740</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>44740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44740</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49430,7 +49430,7 @@
         <v>44743</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44743</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44743</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         <v>44746</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49715,7 +49715,7 @@
         <v>44748</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49772,7 +49772,7 @@
         <v>44748</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>44750</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49886,7 +49886,7 @@
         <v>44750</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49943,7 +49943,7 @@
         <v>44752</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>44753</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>44770</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50119,7 +50119,7 @@
         <v>44781</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50176,7 +50176,7 @@
         <v>44781</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>44781</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50290,7 +50290,7 @@
         <v>44781</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         <v>44781</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>44781</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>44781</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50518,7 +50518,7 @@
         <v>44781</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50575,7 +50575,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>44790</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>44802</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>44804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>44804</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50865,7 +50865,7 @@
         <v>44804</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50922,7 +50922,7 @@
         <v>44812</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50979,7 +50979,7 @@
         <v>44813</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44813</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>44813</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44813</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51207,7 +51207,7 @@
         <v>44813</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51264,7 +51264,7 @@
         <v>44816</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51321,7 +51321,7 @@
         <v>44816</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51378,7 +51378,7 @@
         <v>44816</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51435,7 +51435,7 @@
         <v>44816</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51492,7 +51492,7 @@
         <v>44819</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51554,7 +51554,7 @@
         <v>44824</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51611,7 +51611,7 @@
         <v>44825</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51668,7 +51668,7 @@
         <v>44825</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51725,7 +51725,7 @@
         <v>44825</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51782,7 +51782,7 @@
         <v>44825</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51839,7 +51839,7 @@
         <v>44825</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51896,7 +51896,7 @@
         <v>44826</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51953,7 +51953,7 @@
         <v>44827</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52010,7 +52010,7 @@
         <v>44827</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52067,7 +52067,7 @@
         <v>44830</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52124,7 +52124,7 @@
         <v>44831</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52181,7 +52181,7 @@
         <v>44831</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52238,7 +52238,7 @@
         <v>44833</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52295,7 +52295,7 @@
         <v>44833</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52352,7 +52352,7 @@
         <v>44834</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52409,7 +52409,7 @@
         <v>44839</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         <v>44851</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>44859</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52580,7 +52580,7 @@
         <v>44868</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52637,7 +52637,7 @@
         <v>44869</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52694,7 +52694,7 @@
         <v>44875</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52751,7 +52751,7 @@
         <v>44879</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44880</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52865,7 +52865,7 @@
         <v>44887</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52922,7 +52922,7 @@
         <v>44888</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52979,7 +52979,7 @@
         <v>44894</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>44902</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53093,7 +53093,7 @@
         <v>44909</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53150,7 +53150,7 @@
         <v>44909</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53207,7 +53207,7 @@
         <v>44916</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53264,7 +53264,7 @@
         <v>44917</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53321,7 +53321,7 @@
         <v>44926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53378,7 +53378,7 @@
         <v>44926</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>44926</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53492,7 +53492,7 @@
         <v>44926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53549,7 +53549,7 @@
         <v>44930</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>44930</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>44930</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53720,7 +53720,7 @@
         <v>44930</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53777,7 +53777,7 @@
         <v>44935</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53834,7 +53834,7 @@
         <v>44935</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53891,7 +53891,7 @@
         <v>44936</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53948,7 +53948,7 @@
         <v>44945</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54005,7 +54005,7 @@
         <v>44946</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54062,7 +54062,7 @@
         <v>44946</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54119,7 +54119,7 @@
         <v>44946</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54176,7 +54176,7 @@
         <v>44946</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54233,7 +54233,7 @@
         <v>44946</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54290,7 +54290,7 @@
         <v>44946</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54347,7 +54347,7 @@
         <v>44951</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>44952</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>44957</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44960</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>44965</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>44965</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>44967</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>44967</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54803,7 +54803,7 @@
         <v>44969</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54860,7 +54860,7 @@
         <v>44970</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54917,7 +54917,7 @@
         <v>44970</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54974,7 +54974,7 @@
         <v>44970</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55031,7 +55031,7 @@
         <v>44970</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55088,7 +55088,7 @@
         <v>44970</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55145,7 +55145,7 @@
         <v>44971</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55202,7 +55202,7 @@
         <v>44973</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55259,7 +55259,7 @@
         <v>44977</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55316,7 +55316,7 @@
         <v>44995</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55373,7 +55373,7 @@
         <v>45000</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55430,7 +55430,7 @@
         <v>45000</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55487,7 +55487,7 @@
         <v>45001</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55549,7 +55549,7 @@
         <v>45005</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55606,7 +55606,7 @@
         <v>45005</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55663,7 +55663,7 @@
         <v>45005</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55720,7 +55720,7 @@
         <v>45006</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55777,7 +55777,7 @@
         <v>45007</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55834,7 +55834,7 @@
         <v>45015</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         <v>45021</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55948,7 +55948,7 @@
         <v>45021</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56005,7 +56005,7 @@
         <v>45022</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         <v>45022</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56119,7 +56119,7 @@
         <v>45022</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56176,7 +56176,7 @@
         <v>45022</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45022</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>45022</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45033</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45035</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56461,7 +56461,7 @@
         <v>45041</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56518,7 +56518,7 @@
         <v>45042</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56575,7 +56575,7 @@
         <v>45042</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56632,7 +56632,7 @@
         <v>45042</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56689,7 +56689,7 @@
         <v>45042</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56746,7 +56746,7 @@
         <v>45042</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45048</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45048</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>45048</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>45048</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>45049</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45055</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45055</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57202,7 +57202,7 @@
         <v>45057</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         <v>45057</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57316,7 +57316,7 @@
         <v>45058</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57373,7 +57373,7 @@
         <v>45062</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57430,7 +57430,7 @@
         <v>45062</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57487,7 +57487,7 @@
         <v>45070</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57549,7 +57549,7 @@
         <v>45070</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57606,7 +57606,7 @@
         <v>45070</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57663,7 +57663,7 @@
         <v>45071</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57720,7 +57720,7 @@
         <v>45071</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57777,7 +57777,7 @@
         <v>45076</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57834,7 +57834,7 @@
         <v>45077</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57891,7 +57891,7 @@
         <v>45079</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
         <v>45082</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         <v>45084</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58062,7 +58062,7 @@
         <v>45085</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58119,7 +58119,7 @@
         <v>45090</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58176,7 +58176,7 @@
         <v>45091</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45094</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45096</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45096</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45097</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45097</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45097</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58575,7 +58575,7 @@
         <v>45097</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58632,7 +58632,7 @@
         <v>45097</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58689,7 +58689,7 @@
         <v>45097</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58751,7 +58751,7 @@
         <v>45097</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58808,7 +58808,7 @@
         <v>45099</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58865,7 +58865,7 @@
         <v>45099</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58922,7 +58922,7 @@
         <v>45099</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -58979,7 +58979,7 @@
         <v>45104</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59036,7 +59036,7 @@
         <v>45104</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59093,7 +59093,7 @@
         <v>45105</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59150,7 +59150,7 @@
         <v>45105</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59207,7 +59207,7 @@
         <v>45107</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59264,7 +59264,7 @@
         <v>45107</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59321,7 +59321,7 @@
         <v>45107</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59378,7 +59378,7 @@
         <v>45113</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59435,7 +59435,7 @@
         <v>45113</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59492,7 +59492,7 @@
         <v>45113</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59549,7 +59549,7 @@
         <v>45114</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59606,7 +59606,7 @@
         <v>45114</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59663,7 +59663,7 @@
         <v>45117</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59720,7 +59720,7 @@
         <v>45119</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>45123</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59834,7 +59834,7 @@
         <v>45133</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59891,7 +59891,7 @@
         <v>45133</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -59948,7 +59948,7 @@
         <v>45133</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60005,7 +60005,7 @@
         <v>45134</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60062,7 +60062,7 @@
         <v>45135</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60119,7 +60119,7 @@
         <v>45135</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60176,7 +60176,7 @@
         <v>45135</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60233,7 +60233,7 @@
         <v>45135</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60290,7 +60290,7 @@
         <v>45145</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60347,7 +60347,7 @@
         <v>45146</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60404,7 +60404,7 @@
         <v>45146</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45152</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60518,7 +60518,7 @@
         <v>45161</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60575,7 +60575,7 @@
         <v>45161</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60632,7 +60632,7 @@
         <v>45162</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60689,7 +60689,7 @@
         <v>45163</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60746,7 +60746,7 @@
         <v>45167</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60803,7 +60803,7 @@
         <v>45168</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60860,7 +60860,7 @@
         <v>45168</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -60917,7 +60917,7 @@
         <v>45170</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -60974,7 +60974,7 @@
         <v>45170</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61031,7 +61031,7 @@
         <v>45173</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61088,7 +61088,7 @@
         <v>45173</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61145,7 +61145,7 @@
         <v>45173</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61202,7 +61202,7 @@
         <v>45173</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61259,7 +61259,7 @@
         <v>45174</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61321,7 +61321,7 @@
         <v>45176</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61378,7 +61378,7 @@
         <v>45181</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>

--- a/Översikt VETLANDA.xlsx
+++ b/Översikt VETLANDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1012"/>
+  <dimension ref="A1:Y1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43627</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43609</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43580</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43317</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45084</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>43956</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44890</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43483</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>43913</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43714</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43514</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43721</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43725</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44006</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44376</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44545</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44819</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>44889</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44903</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43644</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43714</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43913</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44006</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>44049</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>44205</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44255</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>44550</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44603</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>45035</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43318</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43327</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>43390</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43409</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43489</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43517</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>43571</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43571</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43595</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43605</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43627</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43639</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43713</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43718</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43721</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44053</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44064</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44187</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>44305</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44434</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44454</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44595</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44643</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44747</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44818</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44830</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44834</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44880</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44908</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44959</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44998</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45021</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45085</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45101</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43321</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43327</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43327</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43328</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43332</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43332</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43332</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43332</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43332</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43335</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43336</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43339</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43341</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43342</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43342</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43342</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43346</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43354</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43354</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43355</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43360</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43361</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43367</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>43367</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         <v>43368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>43370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>43370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43376</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43378</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43384</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43384</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43387</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43388</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43388</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43395</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43397</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43397</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43402</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43403</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43403</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43403</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43405</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43409</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43410</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43410</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43412</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43415</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43416</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43418</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43418</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43424</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43424</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43426</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43427</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43431</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43433</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43433</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43434</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43437</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43437</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43437</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43440</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>43447</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>43449</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>43452</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+  